--- a/docs/Hive anti-pattern汇总表v1.xlsx
+++ b/docs/Hive anti-pattern汇总表v1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20366"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554399A6-1581-408B-9048-51B5E293F54B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F189098A-6FB6-4A17-92A9-6AFE12717FE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="121">
   <si>
     <t>静态检测</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用针对hadoop的搜索工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在大表中(频繁)使用count(distinct )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用分区查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>严重程度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -535,6 +527,64 @@
   </si>
   <si>
     <t>当数据两个比较大的时候，对经常按照某一个字段进行过滤查询的时候，就需要按照过滤字段创建分区表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select  t1.subname,t4.age from t1 
+inner join t2 on t1.id = t2.id 
+inner join t4 on t4.name = t1.name
+确保尽可能多的匹配满足条件，减少Where的执行，此外强制禁止3个以上的join嵌套。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t3.subname,t4.age from (select t1.subname,t2.age from t1 inner join t2 on t1.id = t2.id) as t3 inner join t4 on t4.name = t3.name;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">select col1 from t1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用分区查询:select col1 from t1 partition(p1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select t1.col1, t2.col2 from t1 join t2 on t1.col1.attri1 = t2.col2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计表时，将join中需要的struct属性作为单独列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select col1, col2 from t1 where col_name like '%key_word%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用针对hadoop的搜索工具:
+select col1, col2 from t1 where instr(col_name,'key_word') is not null and instr(col_name,'key_word') &gt; 0
+select col1, col2 from t1 where locate('key_word',col_name) &gt; 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select (
+    select count(*) from event where event_key = "Get"
+) as get_num,(
+    select count(*) from event where event_key = "Set"
+) as set_num
+修改后：
+with temp as(
+    select * from event where event_key = "Get" or event_key = "Set"
+)
+select 
+    sum(case when event_key = "Get" then 1 else 0 end) as get_num,
+    sum(case when event_key = "Set" then 1 else 0 end) as Set_num
+from temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">使用with as可以避免Hive对不同部分的相同子查询进行重复计算。
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +616,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,6 +647,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -612,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,6 +704,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,7 +1053,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1010,16 +1078,16 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
@@ -1033,34 +1101,37 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -1069,271 +1140,292 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
+      <c r="C10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="72" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="259.2" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -1341,405 +1433,405 @@
         <v>5</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="72" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Hive anti-pattern汇总表v1.xlsx
+++ b/docs/Hive anti-pattern汇总表v1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F189098A-6FB6-4A17-92A9-6AFE12717FE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C680F267-C8E7-4D1E-B623-8F67DB973EE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
   <si>
     <t>静态检测</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,10 +420,6 @@
   <si>
     <t>设置hive.vectorized.execution.enabled=true
 hive.vectorized.execution.reduce.enabled=true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置hive.exec.parallel=true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -585,6 +581,17 @@
   <si>
     <t xml:space="preserve">使用with as可以避免Hive对不同部分的相同子查询进行重复计算。
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个union all 操作并无关联，不需要顺序执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 开启任务并行执行
+set hive.exec.parallel=true;
+// 同一个sql允许并行任务的最大线程数
+set hive.exec.parallel.thread.number=8;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +623,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,6 +666,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -674,7 +687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,13 +715,16 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1052,8 +1068,8 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1107,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1111,16 +1127,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1145,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1147,7 +1163,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1162,7 +1178,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1177,15 +1193,15 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
@@ -1195,7 +1211,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
@@ -1213,16 +1229,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="E9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1231,16 +1247,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="E10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1265,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1264,7 +1280,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1279,7 +1295,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1297,7 +1313,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1315,7 +1331,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="4" t="s">
         <v>61</v>
       </c>
@@ -1330,7 +1346,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
         <v>63</v>
       </c>
@@ -1345,7 +1361,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
         <v>66</v>
       </c>
@@ -1363,7 +1379,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="4" t="s">
         <v>75</v>
       </c>
@@ -1378,7 +1394,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="6" t="s">
         <v>69</v>
       </c>
@@ -1396,15 +1412,15 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="259.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>51</v>
@@ -1414,7 +1430,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="6" t="s">
         <v>73</v>
       </c>
@@ -1429,14 +1445,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>0</v>
@@ -1446,12 +1462,12 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>0</v>
@@ -1461,12 +1477,12 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>0</v>
@@ -1476,12 +1492,12 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>0</v>
@@ -1491,12 +1507,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>0</v>
@@ -1505,13 +1521,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>87</v>
+      <c r="C27" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>0</v>
@@ -1521,7 +1540,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="4" t="s">
         <v>41</v>
       </c>
@@ -1536,7 +1555,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="4" t="s">
         <v>44</v>
       </c>
@@ -1551,7 +1570,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1566,7 +1585,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
@@ -1578,7 +1597,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
@@ -1590,7 +1609,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="1" t="s">
         <v>42</v>
       </c>
@@ -1605,7 +1624,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="1" t="s">
         <v>53</v>
       </c>
@@ -1623,7 +1642,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="1" t="s">
         <v>57</v>
       </c>
@@ -1638,7 +1657,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="4" t="s">
         <v>60</v>
       </c>
@@ -1653,7 +1672,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="4" t="s">
         <v>72</v>
       </c>
@@ -1668,26 +1687,26 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>82</v>
@@ -1700,12 +1719,12 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>51</v>
@@ -1715,9 +1734,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>0</v>
@@ -1727,7 +1746,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="4" t="s">
         <v>13</v>
       </c>
@@ -1735,7 +1754,7 @@
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>0</v>
@@ -1745,12 +1764,12 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>51</v>
@@ -1760,13 +1779,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E44" s="1" t="s">
         <v>0</v>
       </c>
@@ -1775,12 +1794,12 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="187.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>51</v>
@@ -1790,12 +1809,12 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>51</v>
@@ -1805,12 +1824,12 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>51</v>
@@ -1820,12 +1839,12 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>51</v>

--- a/docs/Hive anti-pattern汇总表v1.xlsx
+++ b/docs/Hive anti-pattern汇总表v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C680F267-C8E7-4D1E-B623-8F67DB973EE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32819CA0-A179-4D79-BD3E-2070BB12CEEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$48</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -721,11 +724,11 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,11 +1068,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1111,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1127,7 +1131,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="5" t="s">
         <v>45</v>
       </c>
@@ -1144,8 +1148,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:7" ht="115.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
       <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1162,8 +1166,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1177,8 +1181,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1192,8 +1196,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:7" ht="72" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
@@ -1210,8 +1214,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:7" ht="72" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
@@ -1229,7 +1233,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
@@ -1247,7 +1251,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1265,7 +1269,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1280,7 +1284,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1295,7 +1299,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1313,7 +1317,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1331,7 +1335,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
         <v>61</v>
       </c>
@@ -1346,7 +1350,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>63</v>
       </c>
@@ -1361,7 +1365,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>66</v>
       </c>
@@ -1379,7 +1383,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="4" t="s">
         <v>75</v>
       </c>
@@ -1394,7 +1398,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="6" t="s">
         <v>69</v>
       </c>
@@ -1411,8 +1415,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="259.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+    <row r="20" spans="1:6" ht="259.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1430,7 +1434,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>73</v>
       </c>
@@ -1445,7 +1449,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1462,7 +1466,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="4" t="s">
         <v>37</v>
       </c>
@@ -1477,7 +1481,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -1492,7 +1496,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="4" t="s">
         <v>39</v>
       </c>
@@ -1507,7 +1511,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="4" t="s">
         <v>40</v>
       </c>
@@ -1522,14 +1526,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>121</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -1540,7 +1544,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="4" t="s">
         <v>41</v>
       </c>
@@ -1555,7 +1559,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="4" t="s">
         <v>44</v>
       </c>
@@ -1570,7 +1574,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1584,8 +1588,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+    <row r="31" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
       <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
@@ -1596,8 +1600,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
+    <row r="32" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
       <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
@@ -1609,7 +1613,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="1" t="s">
         <v>42</v>
       </c>
@@ -1624,7 +1628,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="1" t="s">
         <v>53</v>
       </c>
@@ -1642,7 +1646,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="1" t="s">
         <v>57</v>
       </c>
@@ -1657,7 +1661,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="4" t="s">
         <v>60</v>
       </c>
@@ -1672,7 +1676,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="4" t="s">
         <v>72</v>
       </c>
@@ -1687,7 +1691,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1704,7 +1708,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="4" t="s">
         <v>93</v>
       </c>
@@ -1718,8 +1722,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+    <row r="40" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
       <c r="B40" s="7" t="s">
         <v>47</v>
       </c>
@@ -1734,7 +1738,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="4" t="s">
         <v>94</v>
       </c>
@@ -1746,7 +1750,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="4" t="s">
         <v>13</v>
       </c>
@@ -1763,8 +1767,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
+    <row r="43" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
       <c r="B43" s="5" t="s">
         <v>96</v>
       </c>
@@ -1779,7 +1783,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="4" t="s">
         <v>98</v>
       </c>
@@ -1793,8 +1797,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="187.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+    <row r="45" spans="1:6" ht="187.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
       <c r="B45" s="4" t="s">
         <v>106</v>
       </c>
@@ -1808,8 +1812,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="72" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
+    <row r="46" spans="1:6" ht="72" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
       <c r="B46" s="1" t="s">
         <v>102</v>
       </c>
@@ -1823,8 +1827,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
+    <row r="47" spans="1:6" ht="86.4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
       <c r="B47" s="1" t="s">
         <v>104</v>
       </c>
@@ -1838,8 +1842,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
+    <row r="48" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
       <c r="B48" s="1" t="s">
         <v>108</v>
       </c>
@@ -1854,6 +1858,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G48" xr:uid="{728ADC21-0710-4913-8E6D-E8BD78A4215B}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="静态检测"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="A22:A37"/>

--- a/docs/Hive anti-pattern汇总表v1.xlsx
+++ b/docs/Hive anti-pattern汇总表v1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32819CA0-A179-4D79-BD3E-2070BB12CEEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76B7357-0BFF-49FB-8150-4CB62027641E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,7 +602,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,8 +625,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,6 +690,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -685,12 +705,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,9 +753,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1068,12 +1095,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1140,7 @@
       <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1132,7 +1158,7 @@
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -1148,7 +1174,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="115.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="6" t="s">
         <v>18</v>
@@ -1166,9 +1192,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1181,7 +1207,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>31</v>
@@ -1196,7 +1222,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>46</v>
@@ -1214,7 +1240,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>28</v>
@@ -1415,7 +1441,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="259.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="259.2" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="1" t="s">
         <v>50</v>
@@ -1527,7 +1553,7 @@
     </row>
     <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -1588,9 +1614,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="43.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -1600,7 +1626,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="1" t="s">
         <v>49</v>
@@ -1722,7 +1748,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="7" t="s">
         <v>47</v>
@@ -1767,9 +1793,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -1797,7 +1823,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="187.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="4" t="s">
         <v>106</v>
@@ -1812,9 +1838,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="72" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="5" t="s">
         <v>102</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -1827,7 +1853,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="86.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="1" t="s">
         <v>104</v>
@@ -1842,7 +1868,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="1" t="s">
         <v>108</v>
@@ -1858,13 +1884,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G48" xr:uid="{728ADC21-0710-4913-8E6D-E8BD78A4215B}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="静态检测"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G48" xr:uid="{728ADC21-0710-4913-8E6D-E8BD78A4215B}"/>
   <mergeCells count="3">
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="A22:A37"/>
